--- a/relatorios/repasses_liberados/dentistas/36193607404/2023-08-25_relatorio_repasses_36193607404.xlsx
+++ b/relatorios/repasses_liberados/dentistas/36193607404/2023-08-25_relatorio_repasses_36193607404.xlsx
@@ -4582,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N106">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/36193607404/2023-08-25_relatorio_repasses_36193607404.xlsx
+++ b/relatorios/repasses_liberados/dentistas/36193607404/2023-08-25_relatorio_repasses_36193607404.xlsx
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2074,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N33">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N45">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N46">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2866,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3394,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N62">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N63">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3482,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N64">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N119">
         <v>0</v>
